--- a/W07_docker_Compose/DockerCompose_W07.xlsx
+++ b/W07_docker_Compose/DockerCompose_W07.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam4_HK2\KT&amp;TKPM\BT_TH\Lab_KTVTKPM_T7_4_6\W07_dockerCompose\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam4_HK2\KT&amp;TKPM\BT_TH\Lab_KTVTKPM_T7_4_6\W07_docker_Compose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90E9C94-3BE6-4727-A720-86889D1DBF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8363AB-0614-440A-82E9-3D4F9BF027E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="8">
+  <futureMetadata name="XLRICHVALUE" count="12">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -81,8 +81,36 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="8">
+  <valueMetadata count="12">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -106,6 +134,18 @@
     </bk>
     <bk>
       <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -872,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -932,21 +972,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -963,7 +1001,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1103,7 +1140,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1136,14 +1173,43 @@
     <v>7</v>
     <v>5</v>
   </rv>
+  <rv s="1">
+    <v>8</v>
+    <v>5</v>
+    <v>A screenshot of a computer
+AI-generated content may be incorrect.</v>
+  </rv>
+  <rv s="1">
+    <v>9</v>
+    <v>5</v>
+    <v>A screenshot of a computer
+AI-generated content may be incorrect.</v>
+  </rv>
+  <rv s="1">
+    <v>10</v>
+    <v>5</v>
+    <v>A computer screen shot of a black screen
+AI-generated content may be incorrect.</v>
+  </rv>
+  <rv s="1">
+    <v>11</v>
+    <v>5</v>
+    <v>A screenshot of a computer
+AI-generated content may be incorrect.</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <s t="_localImage">
     <k n="_rvRel:LocalImageIdentifier" t="i"/>
     <k n="CalcOrigin" t="i"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
   </s>
 </rvStructures>
 </file>
@@ -1158,6 +1224,10 @@
   <rel r:id="rId6"/>
   <rel r:id="rId7"/>
   <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
 </richValueRels>
 </file>
 
@@ -1364,8 +1434,8 @@
   </sheetPr>
   <dimension ref="A1:Z176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1373,69 +1443,69 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="77.33203125" customWidth="1"/>
-    <col min="5" max="5" width="41" style="50" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="41" style="47" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="39"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="39"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="39"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="33" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1448,7 +1518,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
-      <c r="F7" s="46"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
@@ -1459,10 +1529,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="50" t="e" vm="1">
+      <c r="E8" s="47" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="51" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1475,8 +1545,8 @@
         <v>8</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="54" t="s">
+      <c r="E9" s="44"/>
+      <c r="F9" s="51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1489,10 +1559,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="E10" s="47" t="e" vm="2">
+      <c r="E10" s="44" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="37" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1501,14 +1571,14 @@
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="47" t="e" vm="3">
+      <c r="E11" s="44" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1517,14 +1587,14 @@
       <c r="B12" s="11">
         <v>5</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="49" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="47" t="e" vm="4">
+      <c r="E12" s="44" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1537,8 +1607,8 @@
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="44"/>
+      <c r="F13" s="51" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1551,10 +1621,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="47" t="e" vm="5">
+      <c r="E14" s="44" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="52" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1567,10 +1637,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="47" t="e" vm="6">
+      <c r="E15" s="44" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="53" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1583,10 +1653,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="47" t="e" vm="7">
+      <c r="E16" s="44" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1599,8 +1669,8 @@
         <v>16</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="54" t="s">
+      <c r="E17" s="44"/>
+      <c r="F17" s="51" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1613,8 +1683,8 @@
         <v>17</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="54" t="s">
+      <c r="E18" s="44"/>
+      <c r="F18" s="51" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1627,8 +1697,8 @@
         <v>18</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="54" t="s">
+      <c r="E19" s="44"/>
+      <c r="F19" s="51" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1641,8 +1711,8 @@
         <v>19</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="54" t="s">
+      <c r="E20" s="44"/>
+      <c r="F20" s="51" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1655,10 +1725,10 @@
         <v>20</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="47" t="e" vm="8">
+      <c r="E21" s="44" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="51" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1671,8 +1741,8 @@
         <v>21</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="54" t="s">
+      <c r="E22" s="44"/>
+      <c r="F22" s="51" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1681,8 +1751,8 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="35"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -1693,8 +1763,8 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="35"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="12"/>
@@ -1703,8 +1773,8 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="35"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="12"/>
@@ -1713,8 +1783,8 @@
         <v>25</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="35"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="1:6" ht="15">
       <c r="A27" s="12"/>
@@ -1723,8 +1793,8 @@
         <v>26</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="35"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" ht="15">
       <c r="A28" s="12"/>
@@ -1733,16 +1803,16 @@
         <v>27</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="35"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" ht="15">
       <c r="A29" s="12"/>
       <c r="B29" s="10"/>
       <c r="C29" s="13"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="35"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" ht="15">
       <c r="A30" s="12"/>
@@ -1751,8 +1821,8 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="35"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6" ht="15.6">
       <c r="A31" s="12"/>
@@ -1761,8 +1831,8 @@
         <v>25</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="35"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6" ht="15">
       <c r="A32" s="12"/>
@@ -1771,8 +1841,8 @@
         <v>29</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="35"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6" ht="15">
       <c r="A33" s="12"/>
@@ -1781,16 +1851,16 @@
         <v>30</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="35"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6" ht="15">
       <c r="A34" s="12"/>
       <c r="B34" s="10"/>
       <c r="C34" s="13"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="35"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" ht="15">
       <c r="A35" s="12"/>
@@ -1799,8 +1869,8 @@
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="35"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:6" ht="15.6">
       <c r="A36" s="12"/>
@@ -1809,8 +1879,8 @@
         <v>25</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="35"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" ht="15">
       <c r="A37" s="12"/>
@@ -1819,8 +1889,8 @@
         <v>32</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="35"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" spans="1:6" ht="15">
       <c r="A38" s="12"/>
@@ -1829,16 +1899,16 @@
         <v>33</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="33"/>
     </row>
     <row r="39" spans="1:6" ht="15">
       <c r="A39" s="12"/>
       <c r="B39" s="10"/>
       <c r="C39" s="13"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="35"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6" ht="15">
       <c r="A40" s="12"/>
@@ -1847,8 +1917,8 @@
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="35"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" ht="15.6">
       <c r="A41" s="12"/>
@@ -1857,8 +1927,8 @@
         <v>25</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="35"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:6" ht="15">
       <c r="A42" s="12"/>
@@ -1867,16 +1937,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="35"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="33"/>
     </row>
     <row r="43" spans="1:6" ht="15">
       <c r="A43" s="12"/>
       <c r="B43" s="10"/>
       <c r="C43" s="13"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="35"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="33"/>
     </row>
     <row r="44" spans="1:6" ht="15">
       <c r="A44" s="12"/>
@@ -1885,8 +1955,8 @@
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="35"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:6" ht="15.6">
       <c r="A45" s="12"/>
@@ -1895,8 +1965,8 @@
         <v>25</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="35"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:6" ht="15">
       <c r="A46" s="12"/>
@@ -1905,16 +1975,16 @@
         <v>37</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="35"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:6" ht="15">
       <c r="A47" s="12"/>
       <c r="B47" s="10"/>
       <c r="C47" s="13"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="35"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:6" ht="15">
       <c r="A48" s="12"/>
@@ -1923,8 +1993,8 @@
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="35"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="33"/>
     </row>
     <row r="49" spans="1:6" ht="15.6">
       <c r="A49" s="12"/>
@@ -1933,8 +2003,8 @@
         <v>25</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="35"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="1:6" ht="15">
       <c r="A50" s="12"/>
@@ -1943,16 +2013,16 @@
         <v>39</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="35"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="33"/>
     </row>
     <row r="51" spans="1:6" ht="15">
       <c r="A51" s="12"/>
       <c r="B51" s="10"/>
       <c r="C51" s="13"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="35"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="33"/>
     </row>
     <row r="52" spans="1:6" ht="15">
       <c r="A52" s="12"/>
@@ -1961,8 +2031,8 @@
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="35"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="33"/>
     </row>
     <row r="53" spans="1:6" ht="15.6">
       <c r="A53" s="12"/>
@@ -1971,8 +2041,8 @@
         <v>25</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="35"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="33"/>
     </row>
     <row r="54" spans="1:6" ht="15">
       <c r="A54" s="12"/>
@@ -1981,16 +2051,16 @@
         <v>41</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="35"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="1:6" ht="15">
       <c r="A55" s="12"/>
       <c r="B55" s="10"/>
       <c r="C55" s="13"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="35"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="1:6" ht="15">
       <c r="A56" s="12"/>
@@ -1999,8 +2069,8 @@
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="35"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="1:6" ht="15.6">
       <c r="A57" s="12"/>
@@ -2009,8 +2079,8 @@
         <v>25</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="35"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="1:6" ht="15">
       <c r="A58" s="12"/>
@@ -2019,16 +2089,16 @@
         <v>43</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="35"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="33"/>
     </row>
     <row r="59" spans="1:6" ht="15">
       <c r="A59" s="12"/>
       <c r="B59" s="10"/>
       <c r="C59" s="13"/>
       <c r="D59" s="11"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="35"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="33"/>
     </row>
     <row r="60" spans="1:6" ht="15">
       <c r="A60" s="12"/>
@@ -2037,8 +2107,8 @@
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="11"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="35"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="33"/>
     </row>
     <row r="61" spans="1:6" ht="15.6">
       <c r="A61" s="12"/>
@@ -2047,8 +2117,8 @@
         <v>25</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="35"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="33"/>
     </row>
     <row r="62" spans="1:6" ht="15">
       <c r="A62" s="12"/>
@@ -2057,16 +2127,16 @@
         <v>45</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="35"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="33"/>
     </row>
     <row r="63" spans="1:6" ht="15">
       <c r="A63" s="12"/>
       <c r="B63" s="10"/>
       <c r="C63" s="13"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="35"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="33"/>
     </row>
     <row r="64" spans="1:6" ht="15">
       <c r="A64" s="12"/>
@@ -2075,8 +2145,8 @@
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="11"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="35"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="33"/>
     </row>
     <row r="65" spans="1:6" ht="15.6">
       <c r="A65" s="12"/>
@@ -2085,8 +2155,8 @@
         <v>25</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="35"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="33"/>
     </row>
     <row r="66" spans="1:6" ht="15">
       <c r="A66" s="12"/>
@@ -2095,16 +2165,16 @@
         <v>47</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="35"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="33"/>
     </row>
     <row r="67" spans="1:6" ht="15">
       <c r="A67" s="12"/>
       <c r="B67" s="10"/>
       <c r="C67" s="13"/>
       <c r="D67" s="11"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="35"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="33"/>
     </row>
     <row r="68" spans="1:6" ht="15">
       <c r="A68" s="12"/>
@@ -2113,8 +2183,8 @@
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="11"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="35"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="33"/>
     </row>
     <row r="69" spans="1:6" ht="15.6">
       <c r="A69" s="12"/>
@@ -2123,8 +2193,8 @@
         <v>25</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="35"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="33"/>
     </row>
     <row r="70" spans="1:6" ht="15">
       <c r="A70" s="12"/>
@@ -2133,8 +2203,8 @@
         <v>49</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="35"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="33"/>
     </row>
     <row r="71" spans="1:6" ht="15">
       <c r="A71" s="12"/>
@@ -2143,8 +2213,8 @@
         <v>50</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="35"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="33"/>
     </row>
     <row r="72" spans="1:6" ht="15">
       <c r="A72" s="12"/>
@@ -2153,16 +2223,16 @@
         <v>51</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="35"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="33"/>
     </row>
     <row r="73" spans="1:6" ht="15">
       <c r="A73" s="12"/>
       <c r="B73" s="10"/>
       <c r="C73" s="13"/>
       <c r="D73" s="11"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="35"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="33"/>
     </row>
     <row r="74" spans="1:6" ht="15">
       <c r="A74" s="12"/>
@@ -2171,8 +2241,8 @@
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="11"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="35"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="33"/>
     </row>
     <row r="75" spans="1:6" ht="15.6">
       <c r="A75" s="12"/>
@@ -2181,8 +2251,10 @@
         <v>25</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="35"/>
+      <c r="E75" s="44" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" s="33"/>
     </row>
     <row r="76" spans="1:6" ht="15">
       <c r="A76" s="12"/>
@@ -2191,16 +2263,18 @@
         <v>53</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="35"/>
+      <c r="E76" s="44" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" s="33"/>
     </row>
     <row r="77" spans="1:6" ht="15">
       <c r="A77" s="12"/>
       <c r="B77" s="10"/>
       <c r="C77" s="13"/>
       <c r="D77" s="11"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="35"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="33"/>
     </row>
     <row r="78" spans="1:6" ht="15">
       <c r="A78" s="12"/>
@@ -2209,8 +2283,8 @@
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="11"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="35"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="33"/>
     </row>
     <row r="79" spans="1:6" ht="15.6">
       <c r="A79" s="12"/>
@@ -2219,8 +2293,8 @@
         <v>25</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="35"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="33"/>
     </row>
     <row r="80" spans="1:6" ht="15">
       <c r="A80" s="12"/>
@@ -2229,16 +2303,16 @@
         <v>55</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="35"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="33"/>
     </row>
     <row r="81" spans="1:6" ht="15">
       <c r="A81" s="12"/>
       <c r="B81" s="10"/>
       <c r="C81" s="13"/>
       <c r="D81" s="11"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="35"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="33"/>
     </row>
     <row r="82" spans="1:6" ht="15">
       <c r="A82" s="12"/>
@@ -2247,8 +2321,8 @@
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="11"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="35"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="33"/>
     </row>
     <row r="83" spans="1:6" ht="15.6">
       <c r="A83" s="12"/>
@@ -2257,8 +2331,8 @@
         <v>25</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="35"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="33"/>
     </row>
     <row r="84" spans="1:6" ht="15">
       <c r="A84" s="12"/>
@@ -2267,15 +2341,13 @@
         <v>57</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="35"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="33"/>
     </row>
     <row r="85" spans="1:6" ht="15">
       <c r="A85" s="12"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="F85" s="36"/>
+      <c r="B85" s="13"/>
+      <c r="F85" s="34"/>
     </row>
     <row r="86" spans="1:6" ht="15">
       <c r="A86" s="12"/>
@@ -2284,8 +2356,8 @@
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="11"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="35"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="33"/>
     </row>
     <row r="87" spans="1:6" ht="15.6">
       <c r="A87" s="12"/>
@@ -2294,8 +2366,8 @@
         <v>25</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="35"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="33"/>
     </row>
     <row r="88" spans="1:6" ht="15">
       <c r="A88" s="12"/>
@@ -2304,16 +2376,16 @@
         <v>59</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="35"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="33"/>
     </row>
     <row r="89" spans="1:6" ht="15">
       <c r="A89" s="12"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="11"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="35"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="33"/>
     </row>
     <row r="90" spans="1:6" ht="15.6">
       <c r="A90" s="8" t="s">
@@ -2324,16 +2396,16 @@
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="15"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
     </row>
     <row r="91" spans="1:6" ht="15">
       <c r="A91" s="12"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="39"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="37"/>
     </row>
     <row r="92" spans="1:6" ht="15">
       <c r="A92" s="12"/>
@@ -2342,8 +2414,8 @@
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="39"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="37"/>
     </row>
     <row r="93" spans="1:6" ht="15">
       <c r="A93" s="12"/>
@@ -2352,8 +2424,8 @@
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="10"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="39"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="37"/>
     </row>
     <row r="94" spans="1:6" ht="15.6">
       <c r="A94" s="12"/>
@@ -2362,8 +2434,8 @@
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="39"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="37"/>
     </row>
     <row r="95" spans="1:6" ht="15">
       <c r="A95" s="12"/>
@@ -2372,8 +2444,8 @@
         <v>63</v>
       </c>
       <c r="D95" s="10"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="39"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="37"/>
     </row>
     <row r="96" spans="1:6" ht="15">
       <c r="A96" s="12"/>
@@ -2382,8 +2454,8 @@
         <v>64</v>
       </c>
       <c r="D96" s="10"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="39"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="37"/>
     </row>
     <row r="97" spans="1:26" ht="15">
       <c r="A97" s="12"/>
@@ -2392,8 +2464,8 @@
         <v>65</v>
       </c>
       <c r="D97" s="10"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="39"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="37"/>
     </row>
     <row r="98" spans="1:26" ht="15">
       <c r="A98" s="12"/>
@@ -2402,8 +2474,8 @@
         <v>66</v>
       </c>
       <c r="D98" s="15"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
     </row>
     <row r="99" spans="1:26" ht="15">
       <c r="A99" s="12"/>
@@ -2412,8 +2484,8 @@
       <c r="D99" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
     </row>
     <row r="100" spans="1:26" ht="15.6">
       <c r="A100" s="12"/>
@@ -2422,7 +2494,7 @@
         <v>68</v>
       </c>
       <c r="D100" s="13"/>
-      <c r="E100" s="42"/>
+      <c r="E100" s="40"/>
     </row>
     <row r="101" spans="1:26" ht="15">
       <c r="A101" s="16"/>
@@ -2431,8 +2503,8 @@
       <c r="D101" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E101" s="51"/>
-      <c r="F101" s="45"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="42"/>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
       <c r="I101" s="18"/>
@@ -2461,16 +2533,16 @@
       <c r="D102" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
     </row>
     <row r="103" spans="1:26" ht="15">
       <c r="A103" s="12"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
     </row>
     <row r="104" spans="1:26" ht="15">
       <c r="A104" s="12"/>
@@ -2479,8 +2551,8 @@
       </c>
       <c r="C104" s="21"/>
       <c r="D104" s="22"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="43"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="41"/>
     </row>
     <row r="105" spans="1:26" ht="15">
       <c r="A105" s="12"/>
@@ -2489,8 +2561,8 @@
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="38"/>
     </row>
     <row r="106" spans="1:26" ht="15.6">
       <c r="A106" s="12"/>
@@ -2498,8 +2570,7 @@
         <v>25</v>
       </c>
       <c r="C106" s="20"/>
-      <c r="D106" s="27"/>
-      <c r="F106" s="36"/>
+      <c r="F106" s="34"/>
     </row>
     <row r="107" spans="1:26" ht="15">
       <c r="A107" s="12"/>
@@ -2507,8 +2578,8 @@
         <v>73</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="35"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="33"/>
     </row>
     <row r="108" spans="1:26" ht="15">
       <c r="A108" s="12"/>
@@ -2517,8 +2588,8 @@
         <v>74</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="35"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="33"/>
     </row>
     <row r="109" spans="1:26" ht="15">
       <c r="A109" s="12"/>
@@ -2526,8 +2597,8 @@
         <v>75</v>
       </c>
       <c r="D109" s="11"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="35"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="33"/>
     </row>
     <row r="110" spans="1:26" ht="15">
       <c r="A110" s="12"/>
@@ -2535,15 +2606,15 @@
         <v>76</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="35"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="33"/>
     </row>
     <row r="111" spans="1:26" ht="15">
       <c r="A111" s="12"/>
       <c r="C111" s="13"/>
       <c r="D111" s="11"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="35"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="33"/>
     </row>
     <row r="112" spans="1:26" ht="15">
       <c r="A112" s="12"/>
@@ -2552,8 +2623,8 @@
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="11"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="35"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="33"/>
     </row>
     <row r="113" spans="1:7" ht="15">
       <c r="A113" s="12"/>
@@ -2562,8 +2633,8 @@
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="11"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="35"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="33"/>
     </row>
     <row r="114" spans="1:7" ht="15.6">
       <c r="A114" s="12"/>
@@ -2572,8 +2643,8 @@
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="11"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="35"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="33"/>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1">
       <c r="A115" s="12"/>
@@ -2581,9 +2652,7 @@
       <c r="C115" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D115" s="27"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="28"/>
+      <c r="G115" s="27"/>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1">
       <c r="A116" s="12"/>
@@ -2591,9 +2660,7 @@
       <c r="C116" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D116" s="27"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="28"/>
+      <c r="G116" s="27"/>
     </row>
     <row r="117" spans="1:7" ht="15">
       <c r="A117" s="12"/>
@@ -2602,8 +2669,8 @@
       <c r="D117" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E117" s="47"/>
-      <c r="F117" s="35"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="33"/>
     </row>
     <row r="118" spans="1:7" ht="15">
       <c r="A118" s="12"/>
@@ -2612,15 +2679,14 @@
         <v>82</v>
       </c>
       <c r="D118" s="11"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="35"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="33"/>
     </row>
     <row r="119" spans="1:7" ht="15">
       <c r="A119" s="12"/>
       <c r="B119" s="10"/>
       <c r="C119" s="20"/>
-      <c r="D119" s="27"/>
-      <c r="F119" s="36"/>
+      <c r="F119" s="34"/>
     </row>
     <row r="120" spans="1:7" ht="15">
       <c r="A120" s="12"/>
@@ -2629,8 +2695,8 @@
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
     </row>
     <row r="121" spans="1:7" ht="15">
       <c r="A121" s="12"/>
@@ -2639,8 +2705,8 @@
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="11"/>
-      <c r="E121" s="47"/>
-      <c r="F121" s="35"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="33"/>
     </row>
     <row r="122" spans="1:7" ht="15.6">
       <c r="A122" s="12"/>
@@ -2648,8 +2714,7 @@
         <v>25</v>
       </c>
       <c r="C122" s="20"/>
-      <c r="D122" s="27"/>
-      <c r="F122" s="36"/>
+      <c r="F122" s="34"/>
     </row>
     <row r="123" spans="1:7" ht="15">
       <c r="A123" s="12"/>
@@ -2658,8 +2723,8 @@
         <v>85</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="35"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="33"/>
     </row>
     <row r="124" spans="1:7" ht="15">
       <c r="A124" s="12"/>
@@ -2668,8 +2733,8 @@
         <v>86</v>
       </c>
       <c r="D124" s="15"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
     </row>
     <row r="125" spans="1:7" ht="15">
       <c r="A125" s="12"/>
@@ -2678,16 +2743,16 @@
         <v>87</v>
       </c>
       <c r="D125" s="11"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="35"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="33"/>
     </row>
     <row r="126" spans="1:7" ht="15">
       <c r="A126" s="25"/>
       <c r="B126" s="26"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="48"/>
-      <c r="F126" s="36"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="34"/>
     </row>
     <row r="127" spans="1:7" ht="15">
       <c r="B127" s="13" t="s">
@@ -2774,67 +2839,73 @@
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="15">
+    <row r="146" spans="2:5" ht="15">
       <c r="B146" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="15">
+    <row r="147" spans="2:5" ht="15">
       <c r="B147" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="15.6">
+    <row r="148" spans="2:5" ht="15.6">
       <c r="B148" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="2:3" ht="15">
+    <row r="149" spans="2:5" ht="15">
       <c r="C149" s="13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="150" spans="2:3" ht="15">
+      <c r="E149" s="47" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" ht="15">
       <c r="C150" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" ht="15">
+      <c r="E150" s="47" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" ht="15">
       <c r="C151" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="15">
+    <row r="153" spans="2:5" ht="15">
       <c r="B153" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="154" spans="2:3" ht="15">
+    <row r="154" spans="2:5" ht="15">
       <c r="B154" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="2:3" ht="15.6">
+    <row r="155" spans="2:5" ht="15.6">
       <c r="B155" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="2:3" ht="15">
+    <row r="156" spans="2:5" ht="15">
       <c r="C156" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="15">
+    <row r="157" spans="2:5" ht="15">
       <c r="C157" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="15">
+    <row r="158" spans="2:5" ht="15">
       <c r="C158" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="15">
+    <row r="160" spans="2:5" ht="15">
       <c r="B160" s="13" t="s">
         <v>112</v>
       </c>
